--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Сравнительные характеристики" sheetId="1" r:id="Rc333032080fc463c"/>
-    <sheet name="System" sheetId="2" r:id="R79d35a7745e64631"/>
+    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R84cddc4598254337"/>
+    <sheet name="System" sheetId="2" r:id="Rc37174a1afe4424e"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>First</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Ccc</t>
+  </si>
+  <si>
+    <t>Ddd</t>
   </si>
   <si>
     <t>Models count</t>
@@ -81,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D4"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -102,15 +105,6 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0">
-        <v>100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -120,6 +114,11 @@
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -135,13 +134,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="0">
         <v>3</v>

--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -5,35 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R84cddc4598254337"/>
-    <sheet name="System" sheetId="2" r:id="Rc37174a1afe4424e"/>
+    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R6e3ceb5accce4d61"/>
+    <sheet name="System" sheetId="2" r:id="R7179e1d254954583"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>Bbb</t>
-  </si>
-  <si>
-    <t>Ccc</t>
-  </si>
-  <si>
-    <t>Ddd</t>
+    <t>
+    </t>
   </si>
   <si>
     <t>Models count</t>
@@ -84,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -95,30 +78,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -134,13 +102,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0">
         <v>3</v>
@@ -151,18 +119,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0">
         <v>100</v>

--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Cr1</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>23.001</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>GGG</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +479,34 @@
       </c>
       <c r="D6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>

--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="15015" windowHeight="6345"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнительные характеристики" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Cr1</t>
   </si>
@@ -26,37 +26,22 @@
     <t>Cr3</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>BBB</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>Models count</t>
   </si>
   <si>
     <t>Criteria count</t>
-  </si>
-  <si>
-    <t>22.33</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
-    <t>23.001</t>
-  </si>
-  <si>
-    <t>FFF</t>
-  </si>
-  <si>
-    <t>GGG</t>
   </si>
 </sst>
 </file>
@@ -392,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +401,13 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>12.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -430,83 +415,41 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C3">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -518,21 +461,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <v>3</v>
@@ -551,13 +492,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -15,33 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>Cr1</t>
-  </si>
-  <si>
-    <t>Cr2</t>
-  </si>
-  <si>
-    <t>Cr3</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>К1</t>
+  </si>
+  <si>
+    <t>К2</t>
+  </si>
+  <si>
+    <t>К3</t>
+  </si>
+  <si>
+    <t>М1</t>
+  </si>
+  <si>
+    <t>М2</t>
+  </si>
+  <si>
+    <t>М3</t>
+  </si>
+  <si>
+    <t>М4</t>
+  </si>
+  <si>
+    <t>М5</t>
   </si>
   <si>
     <t>Models count</t>
   </si>
   <si>
     <t>Criteria count</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,13 +407,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -415,13 +421,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,13 +435,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,13 +449,27 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -467,13 +487,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1">
         <v>3</v>
@@ -492,13 +512,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Multicriteria/bin/Debug/data.xlsx
+++ b/Multicriteria/bin/Debug/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>К1</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +476,34 @@
       </c>
       <c r="D6">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -490,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
